--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.00514833283606</v>
+        <v>0.2125036666666667</v>
       </c>
       <c r="H2">
-        <v>1.00514833283606</v>
+        <v>0.637511</v>
       </c>
       <c r="I2">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="J2">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.2034372967454</v>
+        <v>20.49243633333333</v>
       </c>
       <c r="N2">
-        <v>20.2034372967454</v>
+        <v>61.47730900000001</v>
       </c>
       <c r="O2">
-        <v>0.1845624873377936</v>
+        <v>0.1704171761399068</v>
       </c>
       <c r="P2">
-        <v>0.1845624873377936</v>
+        <v>0.1704171761399068</v>
       </c>
       <c r="Q2">
-        <v>20.30745131638151</v>
+        <v>4.354717859766556</v>
       </c>
       <c r="R2">
-        <v>20.30745131638151</v>
+        <v>39.192460737899</v>
       </c>
       <c r="S2">
-        <v>0.1170762341756548</v>
+        <v>0.01814516058035081</v>
       </c>
       <c r="T2">
-        <v>0.1170762341756548</v>
+        <v>0.01814516058035081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.00514833283606</v>
+        <v>0.2125036666666667</v>
       </c>
       <c r="H3">
-        <v>1.00514833283606</v>
+        <v>0.637511</v>
       </c>
       <c r="I3">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="J3">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.1648913771336</v>
+        <v>10.84773033333333</v>
       </c>
       <c r="N3">
-        <v>10.1648913771336</v>
+        <v>32.543191</v>
       </c>
       <c r="O3">
-        <v>0.0928583393274611</v>
+        <v>0.09021082417256794</v>
       </c>
       <c r="P3">
-        <v>0.0928583393274611</v>
+        <v>0.09021082417256795</v>
       </c>
       <c r="Q3">
-        <v>10.21722362118548</v>
+        <v>2.305182470844556</v>
       </c>
       <c r="R3">
-        <v>10.21722362118548</v>
+        <v>20.746642237601</v>
       </c>
       <c r="S3">
-        <v>0.05890419465558452</v>
+        <v>0.009605193137065047</v>
       </c>
       <c r="T3">
-        <v>0.05890419465558452</v>
+        <v>0.009605193137065048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.00514833283606</v>
+        <v>0.2125036666666667</v>
       </c>
       <c r="H4">
-        <v>1.00514833283606</v>
+        <v>0.637511</v>
       </c>
       <c r="I4">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="J4">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.2671625846654</v>
+        <v>84.07831700000001</v>
       </c>
       <c r="N4">
-        <v>75.2671625846654</v>
+        <v>252.234951</v>
       </c>
       <c r="O4">
-        <v>0.6875807585336859</v>
+        <v>0.6992038001079025</v>
       </c>
       <c r="P4">
-        <v>0.6875807585336859</v>
+        <v>0.6992038001079026</v>
       </c>
       <c r="Q4">
-        <v>75.6546629892771</v>
+        <v>17.86695064966234</v>
       </c>
       <c r="R4">
-        <v>75.6546629892771</v>
+        <v>160.802555846961</v>
       </c>
       <c r="S4">
-        <v>0.4361632044621885</v>
+        <v>0.07444769077110902</v>
       </c>
       <c r="T4">
-        <v>0.4361632044621885</v>
+        <v>0.07444769077110905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.00514833283606</v>
+        <v>0.2125036666666667</v>
       </c>
       <c r="H5">
-        <v>1.00514833283606</v>
+        <v>0.637511</v>
       </c>
       <c r="I5">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="J5">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.83115924106804</v>
+        <v>4.830172</v>
       </c>
       <c r="N5">
-        <v>3.83115924106804</v>
+        <v>14.490516</v>
       </c>
       <c r="O5">
-        <v>0.03499841480105947</v>
+        <v>0.04016819957962274</v>
       </c>
       <c r="P5">
-        <v>0.03499841480105947</v>
+        <v>0.04016819957962274</v>
       </c>
       <c r="Q5">
-        <v>3.850883323989005</v>
+        <v>1.026429260630667</v>
       </c>
       <c r="R5">
-        <v>3.850883323989005</v>
+        <v>9.237863345676001</v>
       </c>
       <c r="S5">
-        <v>0.02220105865568535</v>
+        <v>0.004276907105874505</v>
       </c>
       <c r="T5">
-        <v>0.02220105865568535</v>
+        <v>0.004276907105874506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.142366784990582</v>
+        <v>1.193141333333333</v>
       </c>
       <c r="H6">
-        <v>0.142366784990582</v>
+        <v>3.579424</v>
       </c>
       <c r="I6">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="J6">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.2034372967454</v>
+        <v>20.49243633333333</v>
       </c>
       <c r="N6">
-        <v>20.2034372967454</v>
+        <v>61.47730900000001</v>
       </c>
       <c r="O6">
-        <v>0.1845624873377936</v>
+        <v>0.1704171761399068</v>
       </c>
       <c r="P6">
-        <v>0.1845624873377936</v>
+        <v>0.1704171761399068</v>
       </c>
       <c r="Q6">
-        <v>2.876298413696457</v>
+        <v>24.45037281000178</v>
       </c>
       <c r="R6">
-        <v>2.876298413696457</v>
+        <v>220.053355290016</v>
       </c>
       <c r="S6">
-        <v>0.0165823953678198</v>
+        <v>0.1018793766149315</v>
       </c>
       <c r="T6">
-        <v>0.0165823953678198</v>
+        <v>0.1018793766149315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.142366784990582</v>
+        <v>1.193141333333333</v>
       </c>
       <c r="H7">
-        <v>0.142366784990582</v>
+        <v>3.579424</v>
       </c>
       <c r="I7">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="J7">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1648913771336</v>
+        <v>10.84773033333333</v>
       </c>
       <c r="N7">
-        <v>10.1648913771336</v>
+        <v>32.543191</v>
       </c>
       <c r="O7">
-        <v>0.0928583393274611</v>
+        <v>0.09021082417256794</v>
       </c>
       <c r="P7">
-        <v>0.0928583393274611</v>
+        <v>0.09021082417256795</v>
       </c>
       <c r="Q7">
-        <v>1.447142905141</v>
+        <v>12.94287543355378</v>
       </c>
       <c r="R7">
-        <v>1.447142905141</v>
+        <v>116.485878901984</v>
       </c>
       <c r="S7">
-        <v>0.00834304802746238</v>
+        <v>0.05393014213001174</v>
       </c>
       <c r="T7">
-        <v>0.00834304802746238</v>
+        <v>0.05393014213001175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.142366784990582</v>
+        <v>1.193141333333333</v>
       </c>
       <c r="H8">
-        <v>0.142366784990582</v>
+        <v>3.579424</v>
       </c>
       <c r="I8">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="J8">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.2671625846654</v>
+        <v>84.07831700000001</v>
       </c>
       <c r="N8">
-        <v>75.2671625846654</v>
+        <v>252.234951</v>
       </c>
       <c r="O8">
-        <v>0.6875807585336859</v>
+        <v>0.6992038001079025</v>
       </c>
       <c r="P8">
-        <v>0.6875807585336859</v>
+        <v>0.6992038001079026</v>
       </c>
       <c r="Q8">
-        <v>10.71554395254224</v>
+        <v>100.3173152498027</v>
       </c>
       <c r="R8">
-        <v>10.71554395254224</v>
+        <v>902.855837248224</v>
       </c>
       <c r="S8">
-        <v>0.06177710405713759</v>
+        <v>0.4180003969981477</v>
       </c>
       <c r="T8">
-        <v>0.06177710405713759</v>
+        <v>0.4180003969981478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.142366784990582</v>
+        <v>1.193141333333333</v>
       </c>
       <c r="H9">
-        <v>0.142366784990582</v>
+        <v>3.579424</v>
       </c>
       <c r="I9">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="J9">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.83115924106804</v>
+        <v>4.830172</v>
       </c>
       <c r="N9">
-        <v>3.83115924106804</v>
+        <v>14.490516</v>
       </c>
       <c r="O9">
-        <v>0.03499841480105947</v>
+        <v>0.04016819957962274</v>
       </c>
       <c r="P9">
-        <v>0.03499841480105947</v>
+        <v>0.04016819957962274</v>
       </c>
       <c r="Q9">
-        <v>0.545429823937815</v>
+        <v>5.763077860309334</v>
       </c>
       <c r="R9">
-        <v>0.545429823937815</v>
+        <v>51.867700742784</v>
       </c>
       <c r="S9">
-        <v>0.003144504388998241</v>
+        <v>0.02401348987003792</v>
       </c>
       <c r="T9">
-        <v>0.003144504388998241</v>
+        <v>0.02401348987003792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.437030864181343</v>
+        <v>0.1501633333333333</v>
       </c>
       <c r="H10">
-        <v>0.437030864181343</v>
+        <v>0.45049</v>
       </c>
       <c r="I10">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="J10">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2034372967454</v>
+        <v>20.49243633333333</v>
       </c>
       <c r="N10">
-        <v>20.2034372967454</v>
+        <v>61.47730900000001</v>
       </c>
       <c r="O10">
-        <v>0.1845624873377936</v>
+        <v>0.1704171761399068</v>
       </c>
       <c r="P10">
-        <v>0.1845624873377936</v>
+        <v>0.1704171761399068</v>
       </c>
       <c r="Q10">
-        <v>8.829525661230218</v>
+        <v>3.077212547934445</v>
       </c>
       <c r="R10">
-        <v>8.829525661230218</v>
+        <v>27.69491293141</v>
       </c>
       <c r="S10">
-        <v>0.05090385779431907</v>
+        <v>0.01282207426984356</v>
       </c>
       <c r="T10">
-        <v>0.05090385779431907</v>
+        <v>0.01282207426984356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.437030864181343</v>
+        <v>0.1501633333333333</v>
       </c>
       <c r="H11">
-        <v>0.437030864181343</v>
+        <v>0.45049</v>
       </c>
       <c r="I11">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="J11">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1648913771336</v>
+        <v>10.84773033333333</v>
       </c>
       <c r="N11">
-        <v>10.1648913771336</v>
+        <v>32.543191</v>
       </c>
       <c r="O11">
-        <v>0.0928583393274611</v>
+        <v>0.09021082417256794</v>
       </c>
       <c r="P11">
-        <v>0.0928583393274611</v>
+        <v>0.09021082417256795</v>
       </c>
       <c r="Q11">
-        <v>4.442371262858179</v>
+        <v>1.628931345954445</v>
       </c>
       <c r="R11">
-        <v>4.442371262858179</v>
+        <v>14.66038211359</v>
       </c>
       <c r="S11">
-        <v>0.02561109664441421</v>
+        <v>0.006787402031206415</v>
       </c>
       <c r="T11">
-        <v>0.02561109664441421</v>
+        <v>0.006787402031206416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.437030864181343</v>
+        <v>0.1501633333333333</v>
       </c>
       <c r="H12">
-        <v>0.437030864181343</v>
+        <v>0.45049</v>
       </c>
       <c r="I12">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="J12">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>75.2671625846654</v>
+        <v>84.07831700000001</v>
       </c>
       <c r="N12">
-        <v>75.2671625846654</v>
+        <v>252.234951</v>
       </c>
       <c r="O12">
-        <v>0.6875807585336859</v>
+        <v>0.6992038001079025</v>
       </c>
       <c r="P12">
-        <v>0.6875807585336859</v>
+        <v>0.6992038001079026</v>
       </c>
       <c r="Q12">
-        <v>32.89407310885397</v>
+        <v>12.62548034177667</v>
       </c>
       <c r="R12">
-        <v>32.89407310885397</v>
+        <v>113.62932307599</v>
       </c>
       <c r="S12">
-        <v>0.1896404500143599</v>
+        <v>0.05260762593190848</v>
       </c>
       <c r="T12">
-        <v>0.1896404500143599</v>
+        <v>0.05260762593190849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1501633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.45049</v>
+      </c>
+      <c r="I13">
+        <v>0.07523933068411523</v>
+      </c>
+      <c r="J13">
+        <v>0.07523933068411523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.830172</v>
+      </c>
+      <c r="N13">
+        <v>14.490516</v>
+      </c>
+      <c r="O13">
+        <v>0.04016819957962274</v>
+      </c>
+      <c r="P13">
+        <v>0.04016819957962274</v>
+      </c>
+      <c r="Q13">
+        <v>0.7253147280933334</v>
+      </c>
+      <c r="R13">
+        <v>6.52783255284</v>
+      </c>
+      <c r="S13">
+        <v>0.003022228451156774</v>
+      </c>
+      <c r="T13">
+        <v>0.003022228451156774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4400006666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.320002</v>
+      </c>
+      <c r="I14">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="J14">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.49243633333333</v>
+      </c>
+      <c r="N14">
+        <v>61.47730900000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1704171761399068</v>
+      </c>
+      <c r="P14">
+        <v>0.1704171761399068</v>
+      </c>
+      <c r="Q14">
+        <v>9.01668564829089</v>
+      </c>
+      <c r="R14">
+        <v>81.15017083461801</v>
+      </c>
+      <c r="S14">
+        <v>0.03757056467478088</v>
+      </c>
+      <c r="T14">
+        <v>0.03757056467478088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4400006666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.320002</v>
+      </c>
+      <c r="I15">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="J15">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.84773033333333</v>
+      </c>
+      <c r="N15">
+        <v>32.543191</v>
+      </c>
+      <c r="O15">
+        <v>0.09021082417256794</v>
+      </c>
+      <c r="P15">
+        <v>0.09021082417256795</v>
+      </c>
+      <c r="Q15">
+        <v>4.773008578486889</v>
+      </c>
+      <c r="R15">
+        <v>42.957077206382</v>
+      </c>
+      <c r="S15">
+        <v>0.01988808687428473</v>
+      </c>
+      <c r="T15">
+        <v>0.01988808687428474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.437030864181343</v>
-      </c>
-      <c r="H13">
-        <v>0.437030864181343</v>
-      </c>
-      <c r="I13">
-        <v>0.275808256209469</v>
-      </c>
-      <c r="J13">
-        <v>0.275808256209469</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.83115924106804</v>
-      </c>
-      <c r="N13">
-        <v>3.83115924106804</v>
-      </c>
-      <c r="O13">
-        <v>0.03499841480105947</v>
-      </c>
-      <c r="P13">
-        <v>0.03499841480105947</v>
-      </c>
-      <c r="Q13">
-        <v>1.674334833940304</v>
-      </c>
-      <c r="R13">
-        <v>1.674334833940304</v>
-      </c>
-      <c r="S13">
-        <v>0.009652851756375884</v>
-      </c>
-      <c r="T13">
-        <v>0.009652851756375884</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4400006666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.320002</v>
+      </c>
+      <c r="I16">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="J16">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>84.07831700000001</v>
+      </c>
+      <c r="N16">
+        <v>252.234951</v>
+      </c>
+      <c r="O16">
+        <v>0.6992038001079025</v>
+      </c>
+      <c r="P16">
+        <v>0.6992038001079026</v>
+      </c>
+      <c r="Q16">
+        <v>36.99451553221135</v>
+      </c>
+      <c r="R16">
+        <v>332.9506397899021</v>
+      </c>
+      <c r="S16">
+        <v>0.1541480864067372</v>
+      </c>
+      <c r="T16">
+        <v>0.1541480864067373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4400006666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.320002</v>
+      </c>
+      <c r="I17">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="J17">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.830172</v>
+      </c>
+      <c r="N17">
+        <v>14.490516</v>
+      </c>
+      <c r="O17">
+        <v>0.04016819957962274</v>
+      </c>
+      <c r="P17">
+        <v>0.04016819957962274</v>
+      </c>
+      <c r="Q17">
+        <v>2.125278900114667</v>
+      </c>
+      <c r="R17">
+        <v>19.127510101032</v>
+      </c>
+      <c r="S17">
+        <v>0.008855574152553539</v>
+      </c>
+      <c r="T17">
+        <v>0.008855574152553539</v>
       </c>
     </row>
   </sheetData>
